--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -19,13 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cook</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -711,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4"/>
@@ -736,60 +732,72 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="J3" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3">
         <v>10</v>
       </c>
+      <c r="F4" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="J4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3">
         <v>10</v>
@@ -798,46 +806,49 @@
         <v>74</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="J6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:10" ht="28.8">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="J7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="28.8">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>63</v>
@@ -846,7 +857,7 @@
         <v>76</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -854,74 +865,71 @@
         <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.8">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="6"/>
+      <c r="J11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="3">
         <v>15</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="6"/>
-      <c r="J12" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -929,19 +937,19 @@
         <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>66</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -949,50 +957,50 @@
         <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="3">
-        <v>35</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D17" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>69</v>
@@ -1003,53 +1011,53 @@
         <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="3">
-        <v>30</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="6"/>
+      <c r="D20" s="3">
+        <v>20</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D21" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1057,37 +1065,37 @@
         <v>37</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D22" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="3">
-        <v>60</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="6"/>
+      <c r="D24" s="3">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="6" t="s">
@@ -1103,28 +1111,25 @@
         <v>10</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="6"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D27" s="3">
         <v>10</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="6"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
@@ -1140,18 +1145,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D30" s="3">
         <v>10</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1159,7 +1167,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>61</v>
@@ -1169,33 +1177,16 @@
       </c>
       <c r="F31" s="5" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="3">
-        <v>10</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B31">
+      <formula1>cat</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q31">
       <formula1>$J$2:$J$13</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B32">
-      <formula1>cat</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="cat">Sheet1!$J$2:$J$13</definedName>
+    <definedName name="cat">Sheet1!$L$2:$L$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapons/54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weapons/55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,10 +231,6 @@
   </si>
   <si>
     <t>icons/128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icons/130</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -329,6 +321,49 @@
   </si>
   <si>
     <t>"capacity":{"cur":3,"max":10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"armor-1","scale":0.25,"y":-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"boots-1","scale":0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"boots-1","scale":0.25,"x":1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"weapons/3","y":-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapons/54</t>
+  </si>
+  <si>
+    <t>icons/130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boots-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"armor-1","scale":0.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,13 +742,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:F2"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4"/>
@@ -721,13 +756,14 @@
     <col min="1" max="1" width="17.77734375" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="3"/>
     <col min="3" max="3" width="15.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="41.5546875" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="21.33203125" style="3"/>
+    <col min="4" max="4" width="7" style="3" customWidth="1"/>
+    <col min="5" max="6" width="37.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="41.5546875" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="21.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1">
+    <row r="1" spans="1:12" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -741,18 +777,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="J2" s="3" t="s">
+    <row r="2" spans="1:12">
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -765,11 +807,11 @@
       <c r="D3" s="3">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -782,14 +824,14 @@
       <c r="D4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="H4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -802,19 +844,19 @@
       <c r="D5" s="3">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="H5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="J6" s="3" t="s">
+    <row r="6" spans="1:12">
+      <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.8">
+    <row r="7" spans="1:12" ht="28.8">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -827,17 +869,17 @@
       <c r="D7" s="3">
         <v>10</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="G7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
@@ -850,17 +892,17 @@
       <c r="D8" s="3">
         <v>15</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="G8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -873,17 +915,17 @@
       <c r="D9" s="3">
         <v>10</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="G9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8">
+    <row r="10" spans="1:12" ht="28.8">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
@@ -896,23 +938,23 @@
       <c r="D10" s="3">
         <v>15</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="G10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12">
       <c r="A11" s="6"/>
-      <c r="J11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:12">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -926,13 +968,16 @@
         <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:12">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -945,14 +990,14 @@
       <c r="D13" s="3">
         <v>25</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="G13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:12">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
@@ -965,14 +1010,14 @@
       <c r="D14" s="3">
         <v>35</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="G14" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:12">
       <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
@@ -985,11 +1030,11 @@
       <c r="D16" s="3">
         <v>10</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
@@ -1002,11 +1047,11 @@
       <c r="D17" s="3">
         <v>20</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
@@ -1019,14 +1064,14 @@
       <c r="D18" s="3">
         <v>30</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:9">
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
@@ -1034,16 +1079,25 @@
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D20" s="3">
         <v>20</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>79</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
         <v>36</v>
       </c>
@@ -1051,16 +1105,16 @@
         <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="3">
         <v>40</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="6" t="s">
         <v>37</v>
       </c>
@@ -1068,19 +1122,19 @@
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="3">
         <v>60</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="6"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:9">
       <c r="A24" s="6" t="s">
         <v>38</v>
       </c>
@@ -1088,16 +1142,16 @@
         <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="3">
         <v>10</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="6" t="s">
         <v>39</v>
       </c>
@@ -1105,19 +1159,28 @@
         <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D25" s="3">
         <v>10</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>81</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
         <v>40</v>
       </c>
@@ -1125,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
@@ -1139,13 +1202,13 @@
         <v>20</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
         <v>42</v>
       </c>
@@ -1153,16 +1216,16 @@
         <v>21</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" s="3">
         <v>10</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="H30" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
         <v>43</v>
       </c>
@@ -1170,13 +1233,13 @@
         <v>24</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D31" s="3">
         <v>10</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>79</v>
+      <c r="H31" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1185,8 +1248,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B31">
       <formula1>cat</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q31">
-      <formula1>$J$2:$J$13</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S31">
+      <formula1>$L$2:$L$13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapons/45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weapons/46</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,10 +223,6 @@
   </si>
   <si>
     <t>weapons/56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icons/128</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -328,26 +320,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"sprite":"armor-1","scale":0.25,"y":-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sprite":"boots-1","scale":0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sprite":"boots-1","scale":0.25,"x":1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"sprite":"weapons/3","y":-10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>armor-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weapons/54</t>
   </si>
   <si>
@@ -355,15 +331,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boots-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>drop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"sprite":"armor-1","scale":0.25</t>
+    <t>"sprite":"cloth-armor","scale":0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloth-armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapons/45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloth-hood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons/128</t>
+  </si>
+  <si>
+    <t>"sprite":"cloth-hood","scale":0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloth-gloves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloth-boots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"cloth-gloves","scale":0.25,"y":-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"cloth-boots","scale":0.25,"x":1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"cloth-gloves","scale":0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"cloth-boots","scale":0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"cloth-hood","scale":0.25,"y":-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"cloth-armor","scale":0.25,"y":-7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,10 +768,10 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4"/>
@@ -757,7 +780,8 @@
     <col min="2" max="2" width="21.33203125" style="3"/>
     <col min="3" max="3" width="15.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="7" style="3" customWidth="1"/>
-    <col min="5" max="6" width="37.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="42.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="41.5546875" style="5" customWidth="1"/>
     <col min="9" max="16384" width="21.33203125" style="3"/>
@@ -777,10 +801,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -825,7 +849,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>15</v>
@@ -845,7 +869,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>16</v>
@@ -870,10 +894,10 @@
         <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>18</v>
@@ -893,10 +917,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>19</v>
@@ -916,10 +940,10 @@
         <v>10</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>20</v>
@@ -939,10 +963,10 @@
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>21</v>
@@ -968,10 +992,10 @@
         <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>23</v>
@@ -991,7 +1015,7 @@
         <v>25</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>24</v>
@@ -1011,7 +1035,7 @@
         <v>35</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1025,13 +1049,22 @@
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D16" s="3">
         <v>10</v>
       </c>
+      <c r="E16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G16" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1042,13 +1075,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="3">
         <v>20</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1059,13 +1092,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="3">
         <v>30</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1079,22 +1112,22 @@
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="3">
         <v>20</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1105,13 +1138,13 @@
         <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="3">
         <v>40</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1122,13 +1155,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="3">
         <v>60</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1142,13 +1175,22 @@
         <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="D24" s="3">
         <v>10</v>
       </c>
+      <c r="E24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G24" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1159,22 +1201,22 @@
         <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D25" s="3">
         <v>10</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1188,7 +1230,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27" s="3">
         <v>10</v>
@@ -1202,7 +1244,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D28" s="3">
         <v>10</v>
@@ -1216,13 +1258,13 @@
         <v>21</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D30" s="3">
         <v>10</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1233,13 +1275,13 @@
         <v>24</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D31" s="3">
         <v>10</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,15 +210,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapons/46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weapons/47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weapons/55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -382,11 +374,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"sprite":"cloth-armor","scale":0.25,"y":-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"leather-armor","scale":0.25,"y":-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"leather-armor","scale":0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapons/55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leather-armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boots_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leather-boots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"leather-boots","scale":0.25,"x":1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"leather-boots","scale":0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"sprite":"cloth-hood","scale":0.25,"y":-30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"sprite":"cloth-armor","scale":0.25,"y":-7</t>
+    <t>weapons/46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leather-helmet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"leather-helmet","scale":0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gloves_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"leather-gloves","scale":0.25,"y":-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leather-gloves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"leather-gloves","scale":0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"leather-helmet","scale":0.25,"y":-38</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,13 +821,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4"/>
@@ -801,10 +857,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -849,7 +905,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>15</v>
@@ -869,7 +925,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>16</v>
@@ -894,10 +950,10 @@
         <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>18</v>
@@ -917,10 +973,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>19</v>
@@ -940,10 +996,10 @@
         <v>10</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>20</v>
@@ -963,10 +1019,10 @@
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>21</v>
@@ -992,10 +1048,10 @@
         <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>23</v>
@@ -1015,7 +1071,7 @@
         <v>25</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>24</v>
@@ -1035,7 +1091,7 @@
         <v>35</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1049,22 +1105,22 @@
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D16" s="3">
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1075,13 +1131,22 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="D17" s="3">
         <v>20</v>
       </c>
+      <c r="E17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="G17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1092,13 +1157,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3">
         <v>30</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1112,22 +1177,22 @@
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D20" s="3">
         <v>20</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1138,13 +1203,22 @@
         <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="D21" s="3">
         <v>40</v>
       </c>
+      <c r="E21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="G21" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1155,13 +1229,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" s="3">
         <v>60</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1175,122 +1249,174 @@
         <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" s="3">
         <v>10</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G24" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="6" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D25" s="3">
         <v>10</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="3">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="6"/>
+      <c r="G26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="3" t="s">
-        <v>40</v>
+      <c r="A27" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D27" s="3">
         <v>10</v>
       </c>
+      <c r="E27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="A28" s="6"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D30" s="3">
         <v>10</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="3" t="s">
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="3">
+        <v>10</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="3">
         <v>10</v>
       </c>
-      <c r="H31" s="5" t="s">
-        <v>75</v>
+      <c r="H33" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B33">
       <formula1>cat</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S33">
       <formula1>$L$2:$L$13</formula1>
     </dataValidation>
   </dataValidations>

--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,6 +443,30 @@
   </si>
   <si>
     <t>"sprite":"leather-helmet","scale":0.25,"y":-38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bow_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapons/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bow_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapons/26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"weapons/26","y":-8,"x":15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"weapons/22","y":-8,"x":15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -821,13 +845,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4"/>
@@ -836,7 +860,7 @@
     <col min="2" max="2" width="21.33203125" style="3"/>
     <col min="3" max="3" width="15.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="7" style="3" customWidth="1"/>
-    <col min="5" max="5" width="42.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="60.77734375" style="3" customWidth="1"/>
     <col min="6" max="6" width="37.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="41.5546875" style="5" customWidth="1"/>
@@ -1095,328 +1119,368 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="6"/>
+      <c r="A15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="3">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="6" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="D16" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="3">
-        <v>20</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="A17" s="6"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D18" s="3">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="6"/>
+      <c r="A19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="3">
+        <v>20</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D20" s="3">
-        <v>20</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="3">
-        <v>40</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="A21" s="6"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D22" s="3">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="6"/>
+      <c r="A23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="3">
+        <v>40</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D24" s="3">
-        <v>10</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="3">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="A25" s="6"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="3">
         <v>10</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>62</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="6" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D27" s="3">
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>63</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="3">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="6"/>
-    </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="3" t="s">
-        <v>40</v>
+      <c r="A29" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="D29" s="3">
         <v>10</v>
       </c>
+      <c r="E29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="3">
         <v>10</v>
       </c>
-      <c r="H32" s="5" t="s">
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="3">
+        <v>10</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="3" t="s">
+    <row r="35" spans="1:8">
+      <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D35" s="3">
         <v>10</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B35">
       <formula1>cat</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S35">
       <formula1>$L$2:$L$13</formula1>
     </dataValidation>
   </dataValidations>

--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,6 +467,14 @@
   </si>
   <si>
     <t>"sprite":"weapons/22","y":-8,"x":15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"attack":15,"range":5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"attack":25,"range":5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,10 +856,10 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4"/>
@@ -862,7 +870,7 @@
     <col min="4" max="4" width="7" style="3" customWidth="1"/>
     <col min="5" max="5" width="60.77734375" style="3" customWidth="1"/>
     <col min="6" max="6" width="37.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="41.5546875" style="5" customWidth="1"/>
     <col min="9" max="16384" width="21.33203125" style="3"/>
   </cols>
@@ -1135,7 +1143,7 @@
         <v>114</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1155,7 +1163,7 @@
         <v>113</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:9">

--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="157">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,13 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapons/54</t>
-  </si>
-  <si>
-    <t>icons/130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>drop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,17 +328,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapons/45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cloth-hood</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icons/128</t>
-  </si>
-  <si>
     <t>"sprite":"cloth-hood","scale":0.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,10 +372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapons/55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>leather-armor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,10 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapons/46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>leather-helmet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,6 +453,234 @@
   </si>
   <si>
     <t>"attack":25,"range":5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"鐵礦",
+"des":"鐵礦"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"鹽",
+"des":"鹽"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Iron ore",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Salt",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Bag",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"背包",
+"des":"可以裝物品"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Raw meat",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Cooked meat",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Raw fish",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Salt-baked fish",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Ordinary knife",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Iron Sword",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Steel Sword",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Straw hat",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Linen hat",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Leather hat",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Grass Clothes",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Linen Clothes",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Leather",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Gloves",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Boots",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Necklace",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Ring",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Torch",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Bottle",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"生肉",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"生魚",
+"des":"鐵礦"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"匕首",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"鹽烤魚",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"熟肉",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"鐵劍",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"鋼劍",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"草帽",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"麻布帽",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"皮帽",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"草衣",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"麻布衣",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"皮衣",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"手套",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"靴子",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"項鍊",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"戒子",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"水壺",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"火把",
+"des":""</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,10 +1062,10 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4"/>
@@ -892,13 +1098,19 @@
         <v>74</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -906,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="28.8">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -919,11 +1131,17 @@
       <c r="D3" s="3">
         <v>10</v>
       </c>
+      <c r="I3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="28.8">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -939,11 +1157,17 @@
       <c r="H4" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="I4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" ht="28.8">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -958,6 +1182,12 @@
       </c>
       <c r="H5" s="5" t="s">
         <v>68</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>16</v>
@@ -987,11 +1217,17 @@
       <c r="H7" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="I7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="L7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="28.8">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1010,11 +1246,17 @@
       <c r="H8" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="I8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="L8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" ht="28.8">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -1032,6 +1274,12 @@
       </c>
       <c r="H9" s="5" t="s">
         <v>70</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>20</v>
@@ -1055,6 +1303,12 @@
       </c>
       <c r="H10" s="5" t="s">
         <v>71</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>21</v>
@@ -1066,7 +1320,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="28.8">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1085,11 +1339,17 @@
       <c r="G12" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="I12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="L12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="28.8">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -1105,11 +1365,17 @@
       <c r="G13" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="I13" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="L13" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" ht="28.8">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
@@ -1125,51 +1391,59 @@
       <c r="G14" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="I14" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D15" s="3">
         <v>35</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>115</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D16" s="3">
         <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10" ht="28.8">
       <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
@@ -1177,25 +1451,28 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D18" s="3">
         <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.8">
       <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
@@ -1203,25 +1480,28 @@
         <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D19" s="3">
         <v>20</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="I19" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="28.8">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -1237,11 +1517,18 @@
       <c r="G20" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="I20" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="6"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" ht="28.8">
       <c r="A22" s="6" t="s">
         <v>35</v>
       </c>
@@ -1249,25 +1536,28 @@
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D22" s="3">
         <v>20</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="I22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="28.8">
       <c r="A23" s="6" t="s">
         <v>36</v>
       </c>
@@ -1275,25 +1565,28 @@
         <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D23" s="3">
         <v>40</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="I23" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="28.8">
       <c r="A24" s="6" t="s">
         <v>37</v>
       </c>
@@ -1309,11 +1602,17 @@
       <c r="G24" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="I24" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10" ht="28.8">
       <c r="A26" s="6" t="s">
         <v>38</v>
       </c>
@@ -1321,51 +1620,54 @@
         <v>17</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D26" s="3">
         <v>10</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="I26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="28.8">
       <c r="A27" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D27" s="3">
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="28.8">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -1373,54 +1675,57 @@
         <v>18</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D28" s="3">
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="I28" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="28.8">
       <c r="A29" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D29" s="3">
         <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10" ht="28.8">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
@@ -1433,8 +1738,14 @@
       <c r="D31" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="I31" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="28.8">
       <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
@@ -1447,8 +1758,14 @@
       <c r="D32" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I32" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="28.8">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -1464,8 +1781,14 @@
       <c r="H34" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="28.8">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -1480,6 +1803,12 @@
       </c>
       <c r="H35" s="5" t="s">
         <v>73</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -234,18 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"hunger":-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"hunger":-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"hunger":-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"attack":15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,10 +259,6 @@
   </si>
   <si>
     <t>"defense":6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"defense":4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -681,6 +665,22 @@
   <si>
     <t>"lab":"火把",
 "des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"defense":2,"lifeMax":10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"defense":4,"lifeMax":20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hunger":-1,"life":10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hunger":-5,"life":20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1061,11 +1061,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4"/>
@@ -1095,10 +1095,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1107,10 +1107,10 @@
         <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1132,10 +1132,10 @@
         <v>10</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>14</v>
@@ -1155,13 +1155,13 @@
         <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>15</v>
@@ -1181,13 +1181,13 @@
         <v>10</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>16</v>
@@ -1212,16 +1212,16 @@
         <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>18</v>
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>19</v>
@@ -1270,16 +1270,16 @@
         <v>10</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>20</v>
@@ -1299,16 +1299,16 @@
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>21</v>
@@ -1334,16 +1334,16 @@
         <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>23</v>
@@ -1363,13 +1363,13 @@
         <v>25</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>24</v>
@@ -1389,54 +1389,54 @@
         <v>35</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D15" s="3">
         <v>35</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D16" s="3">
         <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J16" s="5"/>
     </row>
@@ -1451,25 +1451,25 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D18" s="3">
         <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.8">
@@ -1480,25 +1480,25 @@
         <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D19" s="3">
         <v>20</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="28.8">
@@ -1515,13 +1515,13 @@
         <v>30</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1536,25 +1536,25 @@
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D22" s="3">
         <v>20</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="28.8">
@@ -1565,25 +1565,25 @@
         <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D23" s="3">
         <v>40</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="28.8">
@@ -1600,13 +1600,13 @@
         <v>60</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1620,51 +1620,51 @@
         <v>17</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D26" s="3">
         <v>10</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="28.8">
       <c r="A27" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D27" s="3">
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="28.8">
@@ -1675,51 +1675,51 @@
         <v>18</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D28" s="3">
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="28.8">
       <c r="A29" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D29" s="3">
         <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1739,10 +1739,10 @@
         <v>10</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="28.8">
@@ -1759,10 +1759,10 @@
         <v>10</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="28.8">
@@ -1779,13 +1779,13 @@
         <v>10</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="28.8">
@@ -1802,13 +1802,13 @@
         <v>10</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="cat">Sheet1!$L$2:$L$13</definedName>
+    <definedName name="cat">Sheet1!$M$2:$M$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="166">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -681,6 +681,42 @@
   </si>
   <si>
     <t>"hunger":-5,"life":20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"atk":25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"atk":35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"atk":15, "range":5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"atk":25, "range":5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"def":10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"def":20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"def":30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"atk":15,"str":1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1059,13 +1095,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4"/>
@@ -1076,12 +1112,12 @@
     <col min="4" max="4" width="7" style="3" customWidth="1"/>
     <col min="5" max="5" width="60.77734375" style="3" customWidth="1"/>
     <col min="6" max="6" width="37.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="41.5546875" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="21.33203125" style="3"/>
+    <col min="7" max="8" width="28.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="41.5546875" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="21.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1">
+    <row r="1" spans="1:13" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1103,22 +1139,25 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="L2" s="3" t="s">
+    <row r="2" spans="1:13">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="28.8">
+    <row r="3" spans="1:13" ht="28.8">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1131,17 +1170,17 @@
       <c r="D3" s="3">
         <v>10</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28.8">
+    <row r="4" spans="1:13" ht="28.8">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1154,20 +1193,20 @@
       <c r="D4" s="3">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28.8">
+    <row r="5" spans="1:13" ht="28.8">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1180,25 +1219,25 @@
       <c r="D5" s="3">
         <v>10</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="L6" s="3" t="s">
+    <row r="6" spans="1:13">
+      <c r="M6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28.8">
+    <row r="7" spans="1:13" ht="28.8">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1214,20 +1253,20 @@
       <c r="G7" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="28.8">
+    <row r="8" spans="1:13" ht="28.8">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1243,20 +1282,20 @@
       <c r="G8" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="28.8">
+    <row r="9" spans="1:13" ht="28.8">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -1272,20 +1311,20 @@
       <c r="G9" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="28.8">
+    <row r="10" spans="1:13" ht="28.8">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
@@ -1301,26 +1340,26 @@
       <c r="G10" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="6"/>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.8">
+    <row r="12" spans="1:13" ht="28.8">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1339,17 +1378,20 @@
       <c r="G12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="H12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="28.8">
+    <row r="13" spans="1:13" ht="28.8">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -1365,17 +1407,20 @@
       <c r="G13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="H13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28.8">
+    <row r="14" spans="1:13" ht="28.8">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
@@ -1391,14 +1436,17 @@
       <c r="G14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="H14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="6" t="s">
         <v>99</v>
       </c>
@@ -1417,9 +1465,12 @@
       <c r="G15" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="H15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="6" t="s">
         <v>101</v>
       </c>
@@ -1438,12 +1489,15 @@
       <c r="G16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="H16" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="28.8">
+    <row r="18" spans="1:11" ht="28.8">
       <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
@@ -1465,14 +1519,17 @@
       <c r="G18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="H18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="K18" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="28.8">
+    <row r="19" spans="1:11" ht="28.8">
       <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
@@ -1494,14 +1551,17 @@
       <c r="G19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="H19" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="28.8">
+    <row r="20" spans="1:11" ht="28.8">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -1517,18 +1577,21 @@
       <c r="G20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="H20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="K20" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" s="6"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" ht="28.8">
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" ht="28.8">
       <c r="A22" s="6" t="s">
         <v>35</v>
       </c>
@@ -1550,14 +1613,14 @@
       <c r="G22" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="28.8">
+    <row r="23" spans="1:11" ht="28.8">
       <c r="A23" s="6" t="s">
         <v>36</v>
       </c>
@@ -1579,14 +1642,14 @@
       <c r="G23" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="K23" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="28.8">
+    <row r="24" spans="1:11" ht="28.8">
       <c r="A24" s="6" t="s">
         <v>37</v>
       </c>
@@ -1602,17 +1665,17 @@
       <c r="G24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:10" ht="28.8">
+    <row r="26" spans="1:11" ht="28.8">
       <c r="A26" s="6" t="s">
         <v>38</v>
       </c>
@@ -1634,14 +1697,14 @@
       <c r="G26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="28.8">
+    <row r="27" spans="1:11" ht="28.8">
       <c r="A27" s="6" t="s">
         <v>94</v>
       </c>
@@ -1663,11 +1726,11 @@
       <c r="G27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="K27" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="28.8">
+    <row r="28" spans="1:11" ht="28.8">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -1689,14 +1752,14 @@
       <c r="G28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="K28" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="28.8">
+    <row r="29" spans="1:11" ht="28.8">
       <c r="A29" s="6" t="s">
         <v>87</v>
       </c>
@@ -1718,14 +1781,14 @@
       <c r="G29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="K29" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:10" ht="28.8">
+    <row r="31" spans="1:11" ht="28.8">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
@@ -1738,14 +1801,14 @@
       <c r="D31" s="3">
         <v>10</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="J31" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="K31" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="28.8">
+    <row r="32" spans="1:11" ht="28.8">
       <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
@@ -1758,14 +1821,14 @@
       <c r="D32" s="3">
         <v>10</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="J32" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="K32" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="28.8">
+    <row r="34" spans="1:11" ht="28.8">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -1778,17 +1841,17 @@
       <c r="D34" s="3">
         <v>10</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="J34" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="K34" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="28.8">
+    <row r="35" spans="1:11" ht="28.8">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -1801,13 +1864,13 @@
       <c r="D35" s="3">
         <v>10</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="I35" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="J35" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="K35" s="5" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1817,8 +1880,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B35">
       <formula1>cat</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S35">
-      <formula1>$L$2:$L$13</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T35">
+      <formula1>$M$2:$M$13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="171">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -717,6 +717,26 @@
   </si>
   <si>
     <t>"atk":15,"str":1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"def":20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"def":30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"def":40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"def":5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"def":10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1098,10 +1118,10 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4"/>
@@ -1613,6 +1633,9 @@
       <c r="G22" s="3" t="s">
         <v>153</v>
       </c>
+      <c r="H22" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="J22" s="5" t="s">
         <v>144</v>
       </c>
@@ -1642,6 +1665,9 @@
       <c r="G23" s="3" t="s">
         <v>154</v>
       </c>
+      <c r="H23" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="J23" s="5" t="s">
         <v>145</v>
       </c>
@@ -1665,6 +1691,9 @@
       <c r="G24" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="H24" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="J24" s="5" t="s">
         <v>146</v>
       </c>
@@ -1697,6 +1726,9 @@
       <c r="G26" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="H26" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="J26" s="5" t="s">
         <v>147</v>
       </c>
@@ -1726,6 +1758,9 @@
       <c r="G27" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="H27" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="K27" s="5" t="s">
         <v>112</v>
       </c>
@@ -1752,6 +1787,9 @@
       <c r="G28" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="H28" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="J28" s="5" t="s">
         <v>148</v>
       </c>
@@ -1780,6 +1818,9 @@
       </c>
       <c r="G29" s="3" t="s">
         <v>60</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>112</v>

--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -688,22 +688,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"atk":25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"atk":35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"atk":15, "range":5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"atk":25, "range":5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"def":10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -716,10 +700,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"atk":15,"str":1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"def":20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -737,6 +717,27 @@
   </si>
   <si>
     <t>"def":10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"type":"melee","range":1,"atk":25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"type":"melee","range":1,"atk":35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"type":"ranged","range":5,"atk":15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"type":"melee","range":1,"atk":15,
+"str":1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"type":"ranged","range":5,"atk":25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1118,10 +1119,10 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4"/>
@@ -1132,7 +1133,8 @@
     <col min="4" max="4" width="7" style="3" customWidth="1"/>
     <col min="5" max="5" width="60.77734375" style="3" customWidth="1"/>
     <col min="6" max="6" width="37.33203125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="28.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="3" customWidth="1"/>
     <col min="9" max="9" width="41.5546875" style="5" customWidth="1"/>
     <col min="10" max="16384" width="21.33203125" style="3"/>
   </cols>
@@ -1398,8 +1400,8 @@
       <c r="G12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>165</v>
+      <c r="H12" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>136</v>
@@ -1427,8 +1429,8 @@
       <c r="G13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>158</v>
+      <c r="H13" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>139</v>
@@ -1457,7 +1459,7 @@
         <v>58</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>140</v>
@@ -1486,7 +1488,7 @@
         <v>105</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="K15" s="5"/>
     </row>
@@ -1510,7 +1512,7 @@
         <v>106</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="K16" s="5"/>
     </row>
@@ -1540,7 +1542,7 @@
         <v>59</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>141</v>
@@ -1572,7 +1574,7 @@
         <v>60</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>142</v>
@@ -1598,7 +1600,7 @@
         <v>61</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>143</v>
@@ -1634,7 +1636,7 @@
         <v>153</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>144</v>
@@ -1666,7 +1668,7 @@
         <v>154</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>145</v>
@@ -1692,7 +1694,7 @@
         <v>62</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>146</v>
@@ -1727,7 +1729,7 @@
         <v>59</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>147</v>
@@ -1759,7 +1761,7 @@
         <v>60</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>112</v>
@@ -1788,7 +1790,7 @@
         <v>59</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>148</v>
@@ -1820,7 +1822,7 @@
         <v>60</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>112</v>

--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="cat">Sheet1!$M$2:$M$13</definedName>
+    <definedName name="cat">Sheet1!$N$2:$N$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="161">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>props</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>icons/273</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,34 +227,6 @@
   </si>
   <si>
     <t>icons/307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"attack":15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"attack":25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"attack":35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"defense":1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"defense":2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"defense":3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"defense":6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -432,14 +400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"attack":15,"range":5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"attack":25,"range":5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -583,161 +543,161 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"lab":"鹽烤魚",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"熟肉",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"鐵劍",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"鋼劍",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"草帽",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"麻布帽",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"皮帽",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"草衣",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"麻布衣",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"皮衣",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"手套",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"靴子",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"項鍊",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"戒子",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"def":10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"def":20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"def":30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"def":20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"def":30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"def":40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"def":5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"def":10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"type":"melee","range":1,"atk":25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"type":"melee","range":1,"atk":35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"type":"ranged","range":5,"atk":15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"type":"ranged","range":5,"atk":25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"dot","value":2,"dur":3,"icon":"icons/0","tag":"bleed"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"lab":"匕首",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"鹽烤魚",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"熟肉",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"鐵劍",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"鋼劍",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"草帽",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"麻布帽",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"皮帽",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"草衣",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"麻布衣",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"皮衣",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"手套",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"靴子",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"項鍊",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"戒子",
-"des":""</t>
+"des":"常用近戰武器"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"火把",
+"des":"可以照明"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"lab":"水壺",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"火把",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"defense":2,"lifeMax":10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"defense":4,"lifeMax":20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"hunger":-1,"life":10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"hunger":-5,"life":20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"def":10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"def":20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"def":30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"def":20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"def":30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"def":40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"def":5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"def":10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"type":"melee","range":1,"atk":25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"type":"melee","range":1,"atk":35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"type":"ranged","range":5,"atk":15</t>
+"des":"可以裝水"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"type":"melee","range":1,"atk":15,
-"str":1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"type":"ranged","range":5,"atk":25</t>
+"str":"0.5*"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"dodge":"-0.1"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,17 +760,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -819,8 +773,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1116,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
@@ -1131,15 +1085,16 @@
     <col min="2" max="2" width="21.33203125" style="3"/>
     <col min="3" max="3" width="15.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="7" style="3" customWidth="1"/>
-    <col min="5" max="5" width="60.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="33.88671875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="41.5546875" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="21.33203125" style="3"/>
+    <col min="5" max="5" width="38" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="42.88671875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="37.44140625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="21.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1">
+    <row r="1" spans="1:14" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1153,778 +1108,727 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>25</v>
+        <v>153</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="M2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="28.8">
+        <v>97</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="28.8">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="28.8">
+      <c r="K3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="28.8">
       <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="3">
         <v>10</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="28.8">
+      <c r="J4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="28.8">
       <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D5" s="3">
         <v>10</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="M5" s="3" t="s">
+      <c r="J5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="N6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="M6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="28.8">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:14" ht="28.8">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="D7" s="3">
         <v>10</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="28.8">
-      <c r="A8" s="6" t="s">
-        <v>26</v>
+      <c r="J7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="28.8">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3">
         <v>15</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="28.8">
-      <c r="A9" s="6" t="s">
-        <v>27</v>
+      <c r="J8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="28.8">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3">
         <v>10</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="28.8">
-      <c r="A10" s="6" t="s">
-        <v>28</v>
+      <c r="J9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="28.8">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="3">
         <v>15</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="M10" s="3" t="s">
+      <c r="J10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4"/>
+      <c r="N11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="6"/>
-      <c r="M11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="28.8">
-      <c r="A12" s="6" t="s">
-        <v>29</v>
+    <row r="12" spans="1:14" ht="28.8">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3">
         <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="28.8">
-      <c r="A13" s="6" t="s">
-        <v>30</v>
+        <v>159</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="28.8">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="3">
         <v>25</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="28.8">
-      <c r="A14" s="6" t="s">
-        <v>31</v>
+        <v>148</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="28.8">
+      <c r="A14" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="3">
         <v>35</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="6" t="s">
-        <v>99</v>
+        <v>149</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D15" s="3">
         <v>35</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="6" t="s">
-        <v>101</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D16" s="3">
         <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" ht="28.8">
-      <c r="A18" s="6" t="s">
-        <v>32</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="28.8">
+      <c r="A18" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D18" s="3">
         <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="28.8">
-      <c r="A19" s="6" t="s">
-        <v>33</v>
+        <v>140</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="28.8">
+      <c r="A19" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D19" s="3">
         <v>20</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="28.8">
-      <c r="A20" s="6" t="s">
-        <v>34</v>
+        <v>141</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="28.8">
+      <c r="A20" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3">
         <v>30</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="6"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11" ht="28.8">
-      <c r="A22" s="6" t="s">
-        <v>35</v>
+        <v>142</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="28.8">
+      <c r="A22" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D22" s="3">
         <v>20</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="28.8">
-      <c r="A23" s="6" t="s">
-        <v>36</v>
+        <v>143</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="28.8">
+      <c r="A23" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D23" s="3">
         <v>40</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="28.8">
-      <c r="A24" s="6" t="s">
-        <v>37</v>
+        <v>144</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="28.8">
+      <c r="A24" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="3">
         <v>60</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" ht="28.8">
-      <c r="A26" s="6" t="s">
-        <v>38</v>
+        <v>145</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" ht="28.8">
+      <c r="A26" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D26" s="3">
         <v>10</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="28.8">
-      <c r="A27" s="6" t="s">
-        <v>94</v>
+        <v>146</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="28.8">
+      <c r="A27" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D27" s="3">
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="28.8">
-      <c r="A28" s="6" t="s">
-        <v>39</v>
+        <v>147</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="28.8">
+      <c r="A28" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D28" s="3">
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="28.8">
+      <c r="A29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="28.8">
-      <c r="A29" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="D29" s="3">
         <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" ht="28.8">
+        <v>147</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" ht="28.8">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" s="3">
         <v>10</v>
       </c>
-      <c r="J31" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="28.8">
+      <c r="K31" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="28.8">
       <c r="A32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="3">
         <v>10</v>
       </c>
-      <c r="J32" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="28.8">
+      <c r="K32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="28.8">
       <c r="A34" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" s="3">
         <v>10</v>
       </c>
-      <c r="I34" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="28.8">
+      <c r="J34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="28.8">
       <c r="A35" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35" s="3">
         <v>10</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>133</v>
+      <c r="J35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U35">
+      <formula1>$N$2:$N$13</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B35">
       <formula1>cat</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T35">
-      <formula1>$M$2:$M$13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="166">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -698,6 +698,31 @@
   </si>
   <si>
     <t>"dodge":"-0.1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"高級手套",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"高級靴子",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"弓",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"Bow",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"高級弓",
+"des":""</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1073,10 +1098,10 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4"/>
@@ -1411,7 +1436,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" ht="28.8">
       <c r="A15" s="4" t="s">
         <v>91</v>
       </c>
@@ -1430,8 +1455,14 @@
       <c r="G15" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="K15" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="28.8">
       <c r="A16" s="4" t="s">
         <v>93</v>
       </c>
@@ -1449,6 +1480,12 @@
       </c>
       <c r="G16" s="3" t="s">
         <v>151</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1673,8 +1710,11 @@
       <c r="G27" s="3" t="s">
         <v>147</v>
       </c>
+      <c r="K27" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="L27" s="3" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="28.8">
@@ -1728,8 +1768,11 @@
       <c r="G29" s="3" t="s">
         <v>147</v>
       </c>
+      <c r="K29" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="L29" s="3" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:12">

--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -533,31 +533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"lab":"生肉",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"生魚",
-"des":"鐵礦"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"鹽烤魚",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"熟肉",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"鐵劍",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"lab":"鋼劍",
 "des":""</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -723,6 +698,31 @@
   <si>
     <t>"lab":"高級弓",
 "des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"鹽烤魚",
+"des":"鹽烤魚"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"生魚",
+"des":"可烹煮"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"生肉",
+"des":"可烹煮"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"熟肉",
+"des":"熟肉"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"鐵劍",
+"des":"鐵劍"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1098,10 +1098,10 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4"/>
@@ -1139,13 +1139,13 @@
         <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>24</v>
@@ -1259,7 +1259,7 @@
         <v>57</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>105</v>
@@ -1285,7 +1285,7 @@
         <v>58</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>106</v>
@@ -1311,7 +1311,7 @@
         <v>58</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>107</v>
@@ -1337,7 +1337,7 @@
         <v>59</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>108</v>
@@ -1369,16 +1369,16 @@
         <v>63</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>109</v>
@@ -1401,10 +1401,10 @@
         <v>25</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>110</v>
@@ -1427,10 +1427,10 @@
         <v>35</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>111</v>
@@ -1453,13 +1453,13 @@
         <v>96</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="28.8">
@@ -1479,13 +1479,13 @@
         <v>95</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1511,10 +1511,10 @@
         <v>68</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>112</v>
@@ -1540,10 +1540,10 @@
         <v>85</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>113</v>
@@ -1563,10 +1563,10 @@
         <v>30</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>114</v>
@@ -1595,10 +1595,10 @@
         <v>65</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>115</v>
@@ -1624,10 +1624,10 @@
         <v>77</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>116</v>
@@ -1647,10 +1647,10 @@
         <v>60</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>117</v>
@@ -1679,10 +1679,10 @@
         <v>73</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>118</v>
@@ -1708,10 +1708,10 @@
         <v>89</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>118</v>
@@ -1737,10 +1737,10 @@
         <v>74</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>119</v>
@@ -1766,10 +1766,10 @@
         <v>82</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>119</v>
@@ -1792,7 +1792,7 @@
         <v>10</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>120</v>
@@ -1812,7 +1812,7 @@
         <v>10</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>121</v>
@@ -1835,7 +1835,7 @@
         <v>60</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>122</v>
@@ -1858,7 +1858,7 @@
         <v>61</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>123</v>

--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="cat">Sheet1!$N$2:$N$13</definedName>
+    <definedName name="cat">Sheet1!$M$2:$M$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="164">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -636,14 +636,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>self</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effects</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -672,10 +664,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"dodge":"-0.1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"lab":"高級手套",
 "des":""</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -723,6 +711,10 @@
   <si>
     <t>"lab":"鐵劍",
 "des":"鐵劍"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1095,13 +1087,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4"/>
@@ -1113,13 +1105,12 @@
     <col min="5" max="5" width="38" style="3" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="33.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="42.88671875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="37.44140625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="21.33203125" style="3"/>
+    <col min="8" max="8" width="42.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="37.44140625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="21.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1">
+    <row r="1" spans="1:13" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1139,30 +1130,27 @@
         <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L1" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="N2" s="3" t="s">
+    <row r="2" spans="1:13">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="28.8">
+    <row r="3" spans="1:13" ht="28.8">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1175,17 +1163,17 @@
       <c r="D3" s="3">
         <v>10</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="K3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="28.8">
+    <row r="4" spans="1:13" ht="28.8">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1198,20 +1186,20 @@
       <c r="D4" s="3">
         <v>10</v>
       </c>
+      <c r="I4" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J4" s="3" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.8">
+    <row r="5" spans="1:13" ht="28.8">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1224,25 +1212,25 @@
       <c r="D5" s="3">
         <v>10</v>
       </c>
+      <c r="I5" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="J5" s="3" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="N6" s="3" t="s">
+    <row r="6" spans="1:13">
+      <c r="M6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="28.8">
+    <row r="7" spans="1:13" ht="28.8">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1255,20 +1243,20 @@
       <c r="D7" s="3">
         <v>10</v>
       </c>
+      <c r="I7" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="J7" s="3" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="L7" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="28.8">
+    <row r="8" spans="1:13" ht="28.8">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -1281,20 +1269,20 @@
       <c r="D8" s="3">
         <v>15</v>
       </c>
+      <c r="I8" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="J8" s="3" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="L8" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="28.8">
+    <row r="9" spans="1:13" ht="28.8">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -1307,20 +1295,20 @@
       <c r="D9" s="3">
         <v>10</v>
       </c>
+      <c r="I9" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="J9" s="3" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="L9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="28.8">
+    <row r="10" spans="1:13" ht="28.8">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1333,26 +1321,26 @@
       <c r="D10" s="3">
         <v>15</v>
       </c>
+      <c r="I10" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="J10" s="3" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:13">
       <c r="A11" s="4"/>
-      <c r="N11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="28.8">
+    <row r="12" spans="1:13" ht="28.8">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1369,25 +1357,22 @@
         <v>63</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L12" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="28.8">
+    <row r="13" spans="1:13" ht="28.8">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -1403,17 +1388,17 @@
       <c r="G13" s="3" t="s">
         <v>143</v>
       </c>
+      <c r="J13" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="K13" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="L13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="28.8">
+    <row r="14" spans="1:13" ht="28.8">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -1429,14 +1414,14 @@
       <c r="G14" s="3" t="s">
         <v>144</v>
       </c>
+      <c r="J14" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="K14" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L14" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="28.8">
+    <row r="15" spans="1:13" ht="28.8">
       <c r="A15" s="4" t="s">
         <v>91</v>
       </c>
@@ -1455,14 +1440,14 @@
       <c r="G15" s="3" t="s">
         <v>145</v>
       </c>
+      <c r="J15" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="K15" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="28.8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="28.8">
       <c r="A16" s="4" t="s">
         <v>93</v>
       </c>
@@ -1481,17 +1466,17 @@
       <c r="G16" s="3" t="s">
         <v>146</v>
       </c>
+      <c r="J16" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="K16" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="28.8">
+    <row r="18" spans="1:11" ht="28.8">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -1513,14 +1498,14 @@
       <c r="G18" s="3" t="s">
         <v>135</v>
       </c>
+      <c r="J18" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="K18" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L18" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28.8">
+    <row r="19" spans="1:11" ht="28.8">
       <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
@@ -1542,14 +1527,14 @@
       <c r="G19" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="J19" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="K19" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="L19" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28.8">
+    <row r="20" spans="1:11" ht="28.8">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
@@ -1565,17 +1550,17 @@
       <c r="G20" s="3" t="s">
         <v>137</v>
       </c>
+      <c r="J20" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="K20" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L20" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:11">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="28.8">
+    <row r="22" spans="1:11" ht="28.8">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -1597,14 +1582,14 @@
       <c r="G22" s="3" t="s">
         <v>138</v>
       </c>
+      <c r="J22" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="K22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="28.8">
+    <row r="23" spans="1:11" ht="28.8">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -1626,14 +1611,14 @@
       <c r="G23" s="3" t="s">
         <v>139</v>
       </c>
+      <c r="J23" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="K23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="L23" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28.8">
+    <row r="24" spans="1:11" ht="28.8">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -1649,17 +1634,17 @@
       <c r="G24" s="3" t="s">
         <v>140</v>
       </c>
+      <c r="J24" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="K24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L24" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:11">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="28.8">
+    <row r="26" spans="1:11" ht="28.8">
       <c r="A26" s="4" t="s">
         <v>37</v>
       </c>
@@ -1681,14 +1666,14 @@
       <c r="G26" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="J26" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="K26" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L26" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28.8">
+    <row r="27" spans="1:11" ht="28.8">
       <c r="A27" s="4" t="s">
         <v>86</v>
       </c>
@@ -1710,14 +1695,14 @@
       <c r="G27" s="3" t="s">
         <v>142</v>
       </c>
+      <c r="J27" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="K27" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="L27" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28.8">
+    <row r="28" spans="1:11" ht="28.8">
       <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
@@ -1739,14 +1724,14 @@
       <c r="G28" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="J28" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="K28" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L28" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28.8">
+    <row r="29" spans="1:11" ht="28.8">
       <c r="A29" s="4" t="s">
         <v>79</v>
       </c>
@@ -1768,17 +1753,17 @@
       <c r="G29" s="3" t="s">
         <v>142</v>
       </c>
+      <c r="J29" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="K29" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L29" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:11">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="28.8">
+    <row r="31" spans="1:11" ht="28.8">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1791,14 +1776,14 @@
       <c r="D31" s="3">
         <v>10</v>
       </c>
+      <c r="J31" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="K31" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L31" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="28.8">
+    <row r="32" spans="1:11" ht="28.8">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -1811,14 +1796,14 @@
       <c r="D32" s="3">
         <v>10</v>
       </c>
+      <c r="J32" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="K32" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="L32" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="28.8">
+    <row r="34" spans="1:11" ht="28.8">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -1831,17 +1816,17 @@
       <c r="D34" s="3">
         <v>10</v>
       </c>
+      <c r="I34" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="J34" s="3" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="L34" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="28.8">
+    <row r="35" spans="1:11" ht="28.8">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -1854,21 +1839,21 @@
       <c r="D35" s="3">
         <v>10</v>
       </c>
+      <c r="I35" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="J35" s="3" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L35" s="3" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U35">
-      <formula1>$N$2:$N$13</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T35">
+      <formula1>$M$2:$M$13</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B35">
       <formula1>cat</formula1>

--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -264,10 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"sprite":"weapons/3","y":-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>drop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,14 +292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"sprite":"cloth-gloves","scale":0.25,"y":-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sprite":"cloth-boots","scale":0.25,"x":1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"sprite":"cloth-gloves","scale":0.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,14 +300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"sprite":"cloth-armor","scale":0.25,"y":-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sprite":"leather-armor","scale":0.25,"y":-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"sprite":"leather-armor","scale":0.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,18 +316,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"sprite":"leather-boots","scale":0.25,"x":1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"sprite":"leather-boots","scale":0.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"sprite":"cloth-hood","scale":0.25,"y":-30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>leather-helmet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,19 +332,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"sprite":"leather-gloves","scale":0.25,"y":-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>leather-gloves</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"sprite":"leather-gloves","scale":0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sprite":"leather-helmet","scale":0.25,"y":-38</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -715,6 +679,42 @@
   </si>
   <si>
     <t>meta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"cloth-hood","scale":0.25,"y":2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"leather-helmet","scale":0.25,"y":-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"cloth-armor","scale":0.25,"y":25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"leather-armor","scale":0.25,"y":25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"cloth-gloves","scale":0.25,"y":22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"leather-gloves","scale":0.25,"y":22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"cloth-boots","scale":0.25,"x":1,"y":32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"leather-boots","scale":0.25,"x":1,"y":32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"weapons/3","y":22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1090,10 +1090,10 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4"/>
@@ -1102,7 +1102,7 @@
     <col min="2" max="2" width="21.33203125" style="3"/>
     <col min="3" max="3" width="15.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="7" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38" style="3" customWidth="1"/>
+    <col min="5" max="5" width="48.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="33.88671875" style="3" customWidth="1"/>
     <col min="8" max="8" width="42.88671875" style="3" customWidth="1"/>
@@ -1127,22 +1127,22 @@
         <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1164,10 +1164,10 @@
         <v>10</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>13</v>
@@ -1190,10 +1190,10 @@
         <v>55</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>14</v>
@@ -1216,10 +1216,10 @@
         <v>56</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>15</v>
@@ -1247,10 +1247,10 @@
         <v>57</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>17</v>
@@ -1273,10 +1273,10 @@
         <v>58</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>18</v>
@@ -1299,10 +1299,10 @@
         <v>58</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>19</v>
@@ -1325,10 +1325,10 @@
         <v>59</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>20</v>
@@ -1354,19 +1354,19 @@
         <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>22</v>
@@ -1386,13 +1386,13 @@
         <v>25</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>23</v>
@@ -1412,65 +1412,65 @@
         <v>35</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="28.8">
       <c r="A15" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D15" s="3">
         <v>35</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="28.8">
       <c r="A16" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D16" s="3">
         <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1484,25 +1484,25 @@
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="3">
         <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="28.8">
@@ -1513,25 +1513,25 @@
         <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D19" s="3">
         <v>20</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28.8">
@@ -1548,13 +1548,13 @@
         <v>30</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1568,25 +1568,25 @@
         <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="3">
         <v>20</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="28.8">
@@ -1597,25 +1597,25 @@
         <v>15</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D23" s="3">
         <v>40</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="28.8">
@@ -1632,13 +1632,13 @@
         <v>60</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1652,54 +1652,54 @@
         <v>16</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="3">
         <v>10</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="28.8">
       <c r="A27" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D27" s="3">
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="28.8">
@@ -1710,54 +1710,54 @@
         <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="3">
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="28.8">
       <c r="A29" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D29" s="3">
         <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1777,10 +1777,10 @@
         <v>10</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="28.8">
@@ -1797,10 +1797,10 @@
         <v>10</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="28.8">
@@ -1820,10 +1820,10 @@
         <v>60</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="28.8">
@@ -1843,10 +1843,10 @@
         <v>61</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="cat">Sheet1!$M$2:$M$13</definedName>
+    <definedName name="cat">Sheet1!$N$2:$N$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="166">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -600,14 +600,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"type":"dot","value":2,"dur":3,"icon":"icons/0","tag":"bleed"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"lab":"匕首",
 "des":"常用近戰武器"</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -715,6 +707,22 @@
   </si>
   <si>
     <t>"sprite":"weapons/3","y":22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>procs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"scope":"self", "stat":"atk","m":0.05}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"scope":"enemy","type":"dot","value":2,"dur":3,"icon":"icons/0","tag":"bleed"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1087,13 +1095,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4"/>
@@ -1105,12 +1113,13 @@
     <col min="5" max="5" width="48.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="33.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="42.88671875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="37.44140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="21.33203125" style="3"/>
+    <col min="8" max="8" width="39.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="72.109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="37.44140625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="21.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1">
+    <row r="1" spans="1:14" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1130,27 +1139,30 @@
         <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="M2" s="3" t="s">
+    <row r="2" spans="1:14">
+      <c r="N2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="28.8">
+    <row r="3" spans="1:14" ht="28.8">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1163,17 +1175,17 @@
       <c r="D3" s="3">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.8">
+    <row r="4" spans="1:14" ht="28.8">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1186,20 +1198,20 @@
       <c r="D4" s="3">
         <v>10</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.8">
+    <row r="5" spans="1:14" ht="28.8">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1212,25 +1224,25 @@
       <c r="D5" s="3">
         <v>10</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="M6" s="3" t="s">
+    <row r="6" spans="1:14">
+      <c r="N6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.8">
+    <row r="7" spans="1:14" ht="28.8">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1243,20 +1255,20 @@
       <c r="D7" s="3">
         <v>10</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="K7" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.8">
+    <row r="8" spans="1:14" ht="28.8">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -1269,20 +1281,20 @@
       <c r="D8" s="3">
         <v>15</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="K8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.8">
+    <row r="9" spans="1:14" ht="28.8">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -1295,20 +1307,20 @@
       <c r="D9" s="3">
         <v>10</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="K9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.8">
+    <row r="10" spans="1:14" ht="28.8">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1321,26 +1333,26 @@
       <c r="D10" s="3">
         <v>15</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="K10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="4"/>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="28.8">
+    <row r="12" spans="1:14" ht="28.8">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1354,25 +1366,28 @@
         <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>140</v>
+        <v>164</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="K12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.8">
+    <row r="13" spans="1:14" ht="28.8">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -1388,17 +1403,17 @@
       <c r="G13" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="K13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.8">
+    <row r="14" spans="1:14" ht="28.8">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -1414,14 +1429,14 @@
       <c r="G14" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="28.8">
+    <row r="15" spans="1:14" ht="28.8">
       <c r="A15" s="4" t="s">
         <v>82</v>
       </c>
@@ -1440,14 +1455,14 @@
       <c r="G15" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="K15" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="28.8">
+        <v>144</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="28.8">
       <c r="A16" s="4" t="s">
         <v>84</v>
       </c>
@@ -1466,17 +1481,17 @@
       <c r="G16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="K16" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>146</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="28.8">
+    <row r="18" spans="1:12" ht="28.8">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -1490,7 +1505,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>67</v>
@@ -1498,14 +1513,14 @@
       <c r="G18" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="28.8">
+    <row r="19" spans="1:12" ht="28.8">
       <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
@@ -1519,7 +1534,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>78</v>
@@ -1527,14 +1542,14 @@
       <c r="G19" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28.8">
+    <row r="20" spans="1:12" ht="28.8">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
@@ -1550,17 +1565,17 @@
       <c r="G20" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="28.8">
+    <row r="22" spans="1:12" ht="28.8">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -1574,7 +1589,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>64</v>
@@ -1582,14 +1597,14 @@
       <c r="G22" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="28.8">
+    <row r="23" spans="1:12" ht="28.8">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -1603,7 +1618,7 @@
         <v>40</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>72</v>
@@ -1611,14 +1626,14 @@
       <c r="G23" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.8">
+    <row r="24" spans="1:12" ht="28.8">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -1634,17 +1649,17 @@
       <c r="G24" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="28.8">
+    <row r="26" spans="1:12" ht="28.8">
       <c r="A26" s="4" t="s">
         <v>37</v>
       </c>
@@ -1658,7 +1673,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>70</v>
@@ -1666,14 +1681,14 @@
       <c r="G26" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="28.8">
+    <row r="27" spans="1:12" ht="28.8">
       <c r="A27" s="4" t="s">
         <v>79</v>
       </c>
@@ -1687,7 +1702,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>81</v>
@@ -1695,14 +1710,14 @@
       <c r="G27" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="K27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="28.8">
+    <row r="28" spans="1:12" ht="28.8">
       <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
@@ -1716,7 +1731,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>71</v>
@@ -1724,14 +1739,14 @@
       <c r="G28" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="28.8">
+    <row r="29" spans="1:12" ht="28.8">
       <c r="A29" s="4" t="s">
         <v>74</v>
       </c>
@@ -1745,7 +1760,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>76</v>
@@ -1753,17 +1768,17 @@
       <c r="G29" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="K29" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" spans="1:11" ht="28.8">
+    <row r="31" spans="1:12" ht="28.8">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1776,14 +1791,14 @@
       <c r="D31" s="3">
         <v>10</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="28.8">
+    <row r="32" spans="1:12" ht="28.8">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -1796,14 +1811,14 @@
       <c r="D32" s="3">
         <v>10</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="28.8">
+    <row r="34" spans="1:12" ht="28.8">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -1816,17 +1831,17 @@
       <c r="D34" s="3">
         <v>10</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="K34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="28.8">
+    <row r="35" spans="1:12" ht="28.8">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -1839,21 +1854,21 @@
       <c r="D35" s="3">
         <v>10</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="K35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L35" s="3" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T35">
-      <formula1>$M$2:$M$13</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U35">
+      <formula1>$N$2:$N$13</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B35">
       <formula1>cat</formula1>

--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -615,11 +615,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"type":"melee","range":1,"atk":15,
-"str":"0.5*"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"lab":"高級手套",
 "des":""</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -723,6 +718,10 @@
   </si>
   <si>
     <t>{"scope":"enemy","type":"dot","value":2,"dur":3,"icon":"icons/0","tag":"bleed"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"type":"melee","range":1,"atk":15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1098,10 +1097,10 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4"/>
@@ -1139,13 +1138,13 @@
         <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>24</v>
@@ -1259,7 +1258,7 @@
         <v>57</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>96</v>
@@ -1285,7 +1284,7 @@
         <v>58</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>97</v>
@@ -1311,7 +1310,7 @@
         <v>58</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>98</v>
@@ -1337,7 +1336,7 @@
         <v>59</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>99</v>
@@ -1366,16 +1365,16 @@
         <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>138</v>
@@ -1404,7 +1403,7 @@
         <v>134</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>101</v>
@@ -1456,10 +1455,10 @@
         <v>136</v>
       </c>
       <c r="K15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="28.8">
@@ -1482,10 +1481,10 @@
         <v>137</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1505,7 +1504,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>67</v>
@@ -1534,7 +1533,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>78</v>
@@ -1589,7 +1588,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>64</v>
@@ -1618,7 +1617,7 @@
         <v>40</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>72</v>
@@ -1673,7 +1672,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>70</v>
@@ -1702,7 +1701,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>81</v>
@@ -1711,7 +1710,7 @@
         <v>133</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>109</v>
@@ -1731,7 +1730,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>71</v>
@@ -1760,7 +1759,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>76</v>
@@ -1769,7 +1768,7 @@
         <v>133</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>110</v>

--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -713,15 +713,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"scope":"self", "stat":"atk","m":0.05}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"scope":"enemy","type":"dot","value":2,"dur":3,"icon":"icons/0","tag":"bleed"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"type":"melee","range":1,"atk":15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cond":"attack","scope":"enemy","type":"dot","value":2,"dur":3,"icon":"icons/0","tag":"bleed"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cond":"attack","scope":"self", "stat":"atk","m":0.05}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1097,10 +1097,10 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4"/>
@@ -1112,7 +1112,7 @@
     <col min="5" max="5" width="48.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="33.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="39.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.77734375" style="3" customWidth="1"/>
     <col min="9" max="9" width="72.109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="37.44140625" style="3" customWidth="1"/>
     <col min="11" max="16384" width="21.33203125" style="3"/>
@@ -1368,10 +1368,10 @@
         <v>160</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>164</v>

--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -360,10 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"sprite":"weapons/22","y":-8,"x":15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -722,6 +718,10 @@
   </si>
   <si>
     <t>{"cond":"attack","scope":"self", "stat":"atk","m":0.05}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"weapons/22","y":24,"x":15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1097,10 +1097,10 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4"/>
@@ -1138,22 +1138,22 @@
         <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1175,10 +1175,10 @@
         <v>10</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>13</v>
@@ -1201,10 +1201,10 @@
         <v>55</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>14</v>
@@ -1227,10 +1227,10 @@
         <v>56</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>15</v>
@@ -1258,10 +1258,10 @@
         <v>57</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>17</v>
@@ -1284,10 +1284,10 @@
         <v>58</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>18</v>
@@ -1310,10 +1310,10 @@
         <v>58</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>19</v>
@@ -1336,10 +1336,10 @@
         <v>59</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>20</v>
@@ -1365,22 +1365,22 @@
         <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="K12" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>22</v>
@@ -1400,13 +1400,13 @@
         <v>25</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>23</v>
@@ -1426,13 +1426,13 @@
         <v>35</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="28.8">
@@ -1449,16 +1449,16 @@
         <v>35</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="28.8">
@@ -1478,13 +1478,13 @@
         <v>86</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1504,19 +1504,19 @@
         <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="28.8">
@@ -1533,19 +1533,19 @@
         <v>20</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="28.8">
@@ -1562,13 +1562,13 @@
         <v>30</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1588,19 +1588,19 @@
         <v>20</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.8">
@@ -1617,19 +1617,19 @@
         <v>40</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>72</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="28.8">
@@ -1646,13 +1646,13 @@
         <v>60</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1672,19 +1672,19 @@
         <v>10</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>70</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="28.8">
@@ -1701,19 +1701,19 @@
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>81</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="28.8">
@@ -1730,19 +1730,19 @@
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="28.8">
@@ -1759,19 +1759,19 @@
         <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>76</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1791,10 +1791,10 @@
         <v>10</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="28.8">
@@ -1811,10 +1811,10 @@
         <v>10</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="28.8">
@@ -1834,10 +1834,10 @@
         <v>60</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="28.8">
@@ -1857,10 +1857,10 @@
         <v>61</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="167">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,14 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"endurance":{"cur":360,"max":360}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"capacity":{"cur":3,"max":10}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>equip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -722,6 +714,19 @@
   </si>
   <si>
     <t>"sprite":"weapons/22","y":24,"x":15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"scope":"self", "stat":"hp","m":0.1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"useable":true,
+"capacity":10,"dft":3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"endurance":360</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1097,10 +1102,10 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4"/>
@@ -1132,28 +1137,28 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1175,10 +1180,10 @@
         <v>10</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>13</v>
@@ -1201,10 +1206,10 @@
         <v>55</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>14</v>
@@ -1227,10 +1232,10 @@
         <v>56</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>15</v>
@@ -1258,10 +1263,10 @@
         <v>57</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>17</v>
@@ -1284,10 +1289,10 @@
         <v>58</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>18</v>
@@ -1310,10 +1315,10 @@
         <v>58</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>19</v>
@@ -1336,10 +1341,10 @@
         <v>59</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>20</v>
@@ -1365,22 +1370,22 @@
         <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="I12" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>22</v>
@@ -1400,13 +1405,13 @@
         <v>25</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>23</v>
@@ -1426,65 +1431,65 @@
         <v>35</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="28.8">
       <c r="A15" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D15" s="3">
         <v>35</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="28.8">
       <c r="A16" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16" s="3">
         <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1498,25 +1503,25 @@
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18" s="3">
         <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="28.8">
@@ -1527,25 +1532,25 @@
         <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D19" s="3">
         <v>20</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="28.8">
@@ -1562,13 +1567,13 @@
         <v>30</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1582,25 +1587,25 @@
         <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" s="3">
         <v>20</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.8">
@@ -1611,25 +1616,25 @@
         <v>15</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="3">
         <v>40</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="28.8">
@@ -1646,13 +1651,13 @@
         <v>60</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1666,54 +1671,54 @@
         <v>16</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D26" s="3">
         <v>10</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="28.8">
       <c r="A27" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D27" s="3">
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="28.8">
@@ -1724,54 +1729,54 @@
         <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D28" s="3">
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="28.8">
       <c r="A29" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D29" s="3">
         <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1791,10 +1796,10 @@
         <v>10</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="28.8">
@@ -1811,10 +1816,10 @@
         <v>10</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="28.8">
@@ -1831,13 +1836,13 @@
         <v>10</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="28.8">
@@ -1853,14 +1858,17 @@
       <c r="D35" s="3">
         <v>10</v>
       </c>
+      <c r="H35" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="J35" s="3" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -721,12 +721,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"useable":true,
+    <t>"endurance":360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"useable":true,"keep":true,
 "capacity":10,"dft":3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"endurance":360</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,7 +1105,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
+      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4"/>
@@ -1836,7 +1836,7 @@
         <v>10</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>136</v>
@@ -1862,7 +1862,7 @@
         <v>164</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>137</v>

--- a/xls/item.xlsx
+++ b/xls/item.xlsx
@@ -41,34 +41,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icons/273</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>salt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icons/250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icons/137</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>raw_meat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icons/241</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CAT_ALL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,54 +163,6 @@
   </si>
   <si>
     <t>bottle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icons/242</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icons/259</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icons/260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weapons/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weapons/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weapons/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weapons/47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weapons/56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icons/134</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icons/132</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icons/170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icons/307</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -336,19 +272,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapons/22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bow_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weapons/26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sprite":"weapons/26","y":-8,"x":15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -689,10 +613,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"sprite":"weapons/3","y":22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effects</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -705,15 +625,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"cond":"attack","scope":"enemy","type":"dot","value":2,"dur":3,"icon":"icons/0","tag":"bleed"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"cond":"attack","scope":"self", "stat":"atk","m":0.05}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sprite":"weapons/22","y":24,"x":15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -727,6 +639,94 @@
   <si>
     <t>"useable":true,"keep":true,
 "capacity":10,"dft":3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons:273</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons:250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons:137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons:241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons:242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons:259</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons:260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapons:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapons:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapons:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapons:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapons:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapons:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapons:56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons:134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons:132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons:170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons:307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"weapons:3","y":22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"weapons:22","y":24,"x":15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"weapons:26","y":-8,"x":15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cond":"attack","scope":"enemy","type":"dot","value":2,"dur":3,"icon":"icons:0","tag":"bleed"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1102,10 +1102,10 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4"/>
@@ -1137,33 +1137,33 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="N2" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="28.8">
@@ -1171,325 +1171,325 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="28.8">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="D4" s="3">
         <v>10</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="28.8">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="D5" s="3">
         <v>10</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="N6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="28.8">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="D7" s="3">
         <v>10</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="28.8">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D8" s="3">
         <v>15</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="28.8">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="D9" s="3">
         <v>10</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="28.8">
       <c r="A10" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="D10" s="3">
         <v>15</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="4"/>
       <c r="N11" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="28.8">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="D12" s="3">
         <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="28.8">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="D13" s="3">
         <v>25</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="28.8">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="D14" s="3">
         <v>35</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="28.8">
       <c r="A15" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="D15" s="3">
         <v>35</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="28.8">
       <c r="A16" s="4" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="D16" s="3">
         <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1497,83 +1497,83 @@
     </row>
     <row r="18" spans="1:12" ht="28.8">
       <c r="A18" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D18" s="3">
         <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="28.8">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D19" s="3">
         <v>20</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="28.8">
       <c r="A20" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="D20" s="3">
         <v>30</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1581,83 +1581,83 @@
     </row>
     <row r="22" spans="1:12" ht="28.8">
       <c r="A22" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D22" s="3">
         <v>20</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.8">
       <c r="A23" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D23" s="3">
         <v>40</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="28.8">
       <c r="A24" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="D24" s="3">
         <v>60</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1665,118 +1665,118 @@
     </row>
     <row r="26" spans="1:12" ht="28.8">
       <c r="A26" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D26" s="3">
         <v>10</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="28.8">
       <c r="A27" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D27" s="3">
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="28.8">
       <c r="A28" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D28" s="3">
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="28.8">
       <c r="A29" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D29" s="3">
         <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1784,91 +1784,91 @@
     </row>
     <row r="31" spans="1:12" ht="28.8">
       <c r="A31" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="D31" s="3">
         <v>10</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="28.8">
       <c r="A32" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="D32" s="3">
         <v>10</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="28.8">
       <c r="A34" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="D34" s="3">
         <v>10</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="28.8">
       <c r="A35" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="D35" s="3">
         <v>10</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
